--- a/Notes/Progress & tracking/Meetings - attendance.xlsx
+++ b/Notes/Progress & tracking/Meetings - attendance.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -997,7 +997,7 @@
   <dimension ref="B4:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,14 +1086,14 @@
       <c r="E6" s="24">
         <v>43164</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>13</v>
+      <c r="F6" s="24">
+        <v>43166</v>
+      </c>
+      <c r="G6" s="24">
+        <v>43167</v>
+      </c>
+      <c r="H6" s="24">
+        <v>43171</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>13</v>
@@ -1133,16 +1133,22 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5">
         <f>COUNTIF(C7:L7,"=1")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" s="4">
         <f>COUNTIF(C7:L7,0)</f>
@@ -1162,16 +1168,22 @@
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="9">
         <f t="shared" ref="M8:M16" si="0">COUNTIF(C8:L8,"=1")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" ref="N8:N16" si="1">COUNTIF(C8:L8,0)</f>
@@ -1191,16 +1203,22 @@
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" si="1"/>
@@ -1220,16 +1238,22 @@
       <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="1"/>
@@ -1249,16 +1273,22 @@
       <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" si="1"/>
@@ -1278,16 +1308,22 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="1"/>
@@ -1307,16 +1343,22 @@
       <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="1"/>
@@ -1336,16 +1378,22 @@
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" si="1"/>
@@ -1365,16 +1413,22 @@
       <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="1"/>
@@ -1394,16 +1448,22 @@
       <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="1"/>
@@ -1428,15 +1488,15 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="2"/>
@@ -1472,7 +1532,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C17" formulaRange="1"/>
+    <ignoredError sqref="C17:D17 E17:H17" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Notes/Progress & tracking/Meetings - attendance.xlsx
+++ b/Notes/Progress & tracking/Meetings - attendance.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,6 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Development\Uni\Robot Programming\workspace\Autonomous_Warehouse_Project\Notes\Progress &amp; tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D1388-C1F9-4CF2-A6CA-1DF1B47A8D15}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{32695725-CAA4-477E-93D3-CB15806689B3}"/>
   </bookViews>
@@ -250,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -997,7 +998,7 @@
   <dimension ref="B4:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,11 +1096,11 @@
       <c r="H6" s="24">
         <v>43171</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>13</v>
+      <c r="I6" s="24">
+        <v>43172</v>
+      </c>
+      <c r="J6" s="24">
+        <v>43174</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>13</v>
@@ -1142,17 +1143,21 @@
       <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5">
         <f>COUNTIF(C7:L7,"=1")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" s="4">
         <f>COUNTIF(C7:L7,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -1177,13 +1182,17 @@
       <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="9">
         <f t="shared" ref="M8:M16" si="0">COUNTIF(C8:L8,"=1")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" ref="N8:N16" si="1">COUNTIF(C8:L8,0)</f>
@@ -1212,13 +1221,17 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" si="1"/>
@@ -1247,17 +1260,21 @@
       <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -1282,13 +1299,17 @@
       <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" si="1"/>
@@ -1317,13 +1338,17 @@
       <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="1"/>
@@ -1352,13 +1377,17 @@
       <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="1"/>
@@ -1387,17 +1416,21 @@
       <c r="H14" s="5">
         <v>1</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
@@ -1422,13 +1455,17 @@
       <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="1"/>
@@ -1457,13 +1494,17 @@
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="1"/>
@@ -1500,11 +1541,11 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" si="2"/>

--- a/Notes/Progress & tracking/Meetings - attendance.xlsx
+++ b/Notes/Progress & tracking/Meetings - attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Development\Uni\Robot Programming\workspace\Autonomous_Warehouse_Project\Notes\Progress &amp; tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D1388-C1F9-4CF2-A6CA-1DF1B47A8D15}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC2D233-2E9E-470D-9C44-25AEBBA5E9CC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{32695725-CAA4-477E-93D3-CB15806689B3}"/>
   </bookViews>
@@ -54,6 +54,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{545C660E-722E-4549-BFCC-7C9997A34C06}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>James Chamberlain:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Didn't need to be there so not absent</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D9" authorId="0" shapeId="0" xr:uid="{8CD39B37-BDA2-4CE8-BD7A-BD1D7A4739AC}">
       <text>
         <r>
@@ -126,6 +150,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{1BEBA76D-737B-499D-A9F1-087B858924C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>James Chamberlain:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not in Birmingham</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D12" authorId="0" shapeId="0" xr:uid="{2F611E3D-212D-42AD-ACAA-47B268202F43}">
       <text>
         <r>
@@ -147,6 +195,30 @@
           </rPr>
           <t xml:space="preserve">
 Drives to uni and roads too dangerous</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{672946E2-BD7F-460F-A1E8-B600175F1D2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>James Chamberlain:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Didn't need to be there so not absent</t>
         </r>
       </text>
     </comment>
@@ -251,7 +323,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -290,9 +362,6 @@
   </si>
   <si>
     <t>Total absent</t>
-  </si>
-  <si>
-    <t>TBC</t>
   </si>
   <si>
     <t>Total</t>
@@ -412,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -593,11 +662,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,13 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,6 +746,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -997,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A1E960-7F57-4943-8B2E-0C09930C0C6C}">
   <dimension ref="B4:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,35 +1082,36 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.140625" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="R4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="26"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="R4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="23"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7">
         <v>1</v>
       </c>
@@ -1065,64 +1142,74 @@
       <c r="L5" s="6">
         <v>10</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="R5" s="23">
+      <c r="M5" s="10">
+        <v>11</v>
+      </c>
+      <c r="N5" s="6">
+        <v>12</v>
+      </c>
+      <c r="R5" s="20">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
         <v>43158</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>43161</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>43164</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>43166</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="21">
         <v>43167</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="21">
         <v>43171</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="21">
         <v>43172</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="21">
         <v>43174</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="21" t="s">
+      <c r="K6" s="21">
+        <v>43177</v>
+      </c>
+      <c r="L6" s="21">
+        <v>43178</v>
+      </c>
+      <c r="M6" s="21">
+        <v>43179</v>
+      </c>
+      <c r="N6" s="21">
+        <v>43180</v>
+      </c>
+      <c r="O6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="P6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="20">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
@@ -1149,19 +1236,29 @@
       <c r="J7" s="5">
         <v>1</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
       <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
         <f>COUNTIF(C7:L7,"=1")</f>
-        <v>6</v>
-      </c>
-      <c r="N7" s="4">
+        <v>8</v>
+      </c>
+      <c r="P7" s="4">
         <f>COUNTIF(C7:L7,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5">
@@ -1188,19 +1285,29 @@
       <c r="J8" s="5">
         <v>1</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="9">
-        <f t="shared" ref="M8:M16" si="0">COUNTIF(C8:L8,"=1")</f>
-        <v>8</v>
-      </c>
-      <c r="N8" s="8">
-        <f t="shared" ref="N8:N16" si="1">COUNTIF(C8:L8,0)</f>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="9">
+        <f>COUNTIF(C8:L8,"=1")</f>
+        <v>10</v>
+      </c>
+      <c r="P8" s="8">
+        <f>COUNTIF(C8:L8,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5">
@@ -1227,20 +1334,30 @@
       <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N9" s="8">
-        <f t="shared" si="1"/>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9">
+        <f>COUNTIF(C9:L9,"=1")</f>
+        <v>8</v>
+      </c>
+      <c r="P9" s="8">
+        <f>COUNTIF(C9:L9,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>15</v>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1266,19 +1383,29 @@
       <c r="J10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N10" s="8">
-        <f t="shared" si="1"/>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9">
+        <f>COUNTIF(C10:L10,"=1")</f>
+        <v>9</v>
+      </c>
+      <c r="P10" s="8">
+        <f>COUNTIF(C10:L10,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5">
@@ -1305,19 +1432,29 @@
       <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N11" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9">
+        <f>COUNTIF(C11:L11,"=1")</f>
+        <v>7</v>
+      </c>
+      <c r="P11" s="8">
+        <f>COUNTIF(C11:L11,0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="5">
@@ -1344,19 +1481,29 @@
       <c r="J12" s="5">
         <v>1</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N12" s="8">
-        <f t="shared" si="1"/>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9">
+        <f>COUNTIF(C12:L12,"=1")</f>
+        <v>9</v>
+      </c>
+      <c r="P12" s="8">
+        <f>COUNTIF(C12:L12,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="5">
@@ -1383,19 +1530,29 @@
       <c r="J13" s="5">
         <v>1</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N13" s="8">
-        <f t="shared" si="1"/>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9">
+        <f>COUNTIF(C13:L13,"=1")</f>
+        <v>10</v>
+      </c>
+      <c r="P13" s="8">
+        <f>COUNTIF(C13:L13,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="5">
@@ -1422,19 +1579,29 @@
       <c r="J14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N14" s="8">
-        <f t="shared" si="1"/>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9">
+        <f>COUNTIF(C14:L14,"=1")</f>
+        <v>7</v>
+      </c>
+      <c r="P14" s="8">
+        <f>COUNTIF(C14:L14,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="5">
@@ -1461,19 +1628,29 @@
       <c r="J15" s="5">
         <v>1</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="9">
-        <f t="shared" si="0"/>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9">
+        <f>COUNTIF(C15:L15,"=1")</f>
         <v>6</v>
       </c>
-      <c r="N15" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="P15" s="8">
+        <f>COUNTIF(C15:L15,0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="5">
@@ -1500,73 +1677,90 @@
       <c r="J16" s="5">
         <v>1</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <f>COUNTIF(C16:L16,"=1")</f>
+        <v>8</v>
+      </c>
+      <c r="P16" s="1">
+        <f>COUNTIF(C16:L16,0)</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>14</v>
+    <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="3">
         <f>SUM(C7:C16)</f>
         <v>7</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" ref="D17:L17" si="2">SUM(D7:D16)</f>
+        <f t="shared" ref="D17:L17" si="0">SUM(D7:D16)</f>
         <v>7</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K17" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="12"/>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" ref="M17:N17" si="1">SUM(M7:M16)</f>
+        <v>10</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B7:B16">
     <sortCondition ref="B7"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="C4:L4"/>
     <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C4:N4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:L16" xr:uid="{036CCFF1-3AD0-49BF-A7AB-843483964480}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:N16" xr:uid="{036CCFF1-3AD0-49BF-A7AB-843483964480}">
       <formula1>$R$5:$R$6</formula1>
     </dataValidation>
   </dataValidations>
